--- a/data/trans_camb/P21_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P21_R-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-2.032117725998744</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>4.245477348189872</v>
+        <v>4.24547734818986</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.695771839118805</v>
+        <v>3.044902387752639</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.706439941805784</v>
+        <v>-4.696902267585424</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.966192435862368</v>
+        <v>1.595868369421911</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9360165188040713</v>
+        <v>0.8683142963752049</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.668285514518788</v>
+        <v>-6.726455488244579</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02944692100467704</v>
+        <v>-0.1547284127897764</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.89669741506433</v>
+        <v>3.062462128731487</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.629615169258496</v>
+        <v>-4.682356403137497</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.519627965808348</v>
+        <v>1.639797004297616</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.3128660028282</v>
+        <v>10.3646753524761</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.863827196685519</v>
+        <v>2.739803044586107</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.477421772134363</v>
+        <v>9.918094496754879</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.97836343423232</v>
+        <v>8.022256800731984</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9557648540145189</v>
+        <v>0.5251693377124059</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.875836652276083</v>
+        <v>6.701071835026509</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.193727427623447</v>
+        <v>8.067796731159429</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6124940034343473</v>
+        <v>0.6063652820617348</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.76834062126917</v>
+        <v>6.990342812128321</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.08827389912293597</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1844208307265433</v>
+        <v>0.1844208307265428</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1239809681704702</v>
+        <v>0.1534232713841738</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2235368510605445</v>
+        <v>-0.2263485178100784</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.05055896898802357</v>
+        <v>0.07582276847447643</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03368436929877858</v>
+        <v>0.0317721822190137</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2438582836965962</v>
+        <v>-0.2467882309810247</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.001579514869159531</v>
+        <v>-0.005610324101046196</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1230636559719134</v>
+        <v>0.1235637919354073</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1921324002723252</v>
+        <v>-0.1922625402934002</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.06288981589305789</v>
+        <v>0.06755688301513881</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6001535462005649</v>
+        <v>0.6003466264191077</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1613924939051181</v>
+        <v>0.150387564150058</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5566584298881044</v>
+        <v>0.5659150641566281</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3261061825940863</v>
+        <v>0.331233570651395</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03993535034484425</v>
+        <v>0.02127589478689358</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2855346403327318</v>
+        <v>0.2742943546494119</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3776578054559336</v>
+        <v>0.3655174396310333</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.028496744417809</v>
+        <v>0.02950322984218941</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3127127008913385</v>
+        <v>0.3226002981589154</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2658999740480998</v>
+        <v>0.2735469827219448</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.666381183645789</v>
+        <v>-2.36890523595276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1682827082539443</v>
+        <v>-0.140783024764637</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.268770123619297</v>
+        <v>-1.008036875236325</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.417927484449705</v>
+        <v>-6.894650705607511</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.238387517781843</v>
+        <v>-3.347426889127439</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5343987580263738</v>
+        <v>0.4482693390504509</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.765790877816048</v>
+        <v>-3.751015067095626</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.811274776772291</v>
+        <v>-0.7228436190427479</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.518113442428984</v>
+        <v>5.505895956836918</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.394356322632373</v>
+        <v>2.564972024530034</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.527232725017482</v>
+        <v>5.379915298452534</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.289532716892954</v>
+        <v>5.119547240404299</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.036727519570879</v>
+        <v>-1.016830771805576</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.282027892507726</v>
+        <v>2.149128166563471</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.580377180120811</v>
+        <v>4.522130431394269</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.09333867181077715</v>
+        <v>0.09988162740953767</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.172102599884449</v>
+        <v>3.163075057213153</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.01486393574523573</v>
+        <v>0.01258560058636411</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1453951225729004</v>
+        <v>-0.1313586115059838</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01175278167748539</v>
+        <v>-0.004441962351858729</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04921992433859484</v>
+        <v>-0.0397135997767589</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2612252531330701</v>
+        <v>-0.2687226102859957</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1281400051266862</v>
+        <v>-0.1258643720213344</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02585000178128909</v>
+        <v>0.02210254649151904</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1800752990197423</v>
+        <v>-0.175752273985377</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.03867205227041615</v>
+        <v>-0.03363427168284365</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3543196188373845</v>
+        <v>0.3570723678684323</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1569580539416658</v>
+        <v>0.1596310064090588</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3570485526023809</v>
+        <v>0.3522408734234106</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.241431567379853</v>
+        <v>0.2292261930315684</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.05128721464497978</v>
+        <v>-0.04863376500854843</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1069871901582341</v>
+        <v>0.09772916468214664</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2421647579799334</v>
+        <v>0.2379908515783227</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.003871806030420798</v>
+        <v>0.00641483650369359</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1683199988679339</v>
+        <v>0.168334898372152</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.6946218232105617</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8.013520793925363</v>
+        <v>8.013520793925361</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.654266804757427</v>
@@ -1083,7 +1083,7 @@
         <v>2.481930431491008</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.629013777334928</v>
+        <v>3.629013777334922</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.48650446870133</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.719737653435077</v>
+        <v>-4.368205559768216</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.673784380481293</v>
+        <v>-5.151397915240796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.888957324665248</v>
+        <v>2.817548453962062</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.829619218968354</v>
+        <v>-3.501985738616949</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.932143870469588</v>
+        <v>-2.605446484952147</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.600232760320519</v>
+        <v>-1.238339601492788</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.213942197474864</v>
+        <v>-2.536394773367496</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.051814789022149</v>
+        <v>-2.513537624467743</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.656098765104471</v>
+        <v>2.824680655716185</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.799736110507356</v>
+        <v>4.274984442054372</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.154106887044228</v>
+        <v>3.733240837375563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.75946410211261</v>
+        <v>12.51814391195923</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.491536438728026</v>
+        <v>8.406141503288065</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.6877733662472</v>
+        <v>7.788518399637748</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.49941774468728</v>
+        <v>8.424488486751493</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.823017776157276</v>
+        <v>5.075849782543451</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.572996953880185</v>
+        <v>4.705423266192927</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.541221905734751</v>
+        <v>10.30010835433242</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.04811301198537946</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5550568800461438</v>
+        <v>0.5550568800461437</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1191884212063596</v>
@@ -1188,7 +1188,7 @@
         <v>0.1114497491899526</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1629589089843614</v>
+        <v>0.1629589089843611</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.08227434236547078</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2830874466636051</v>
+        <v>-0.2695358337618363</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2876933390120647</v>
+        <v>-0.3060556374636075</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1792917345669161</v>
+        <v>0.1809799965373194</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1559667876426761</v>
+        <v>-0.1439680568611437</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1238878148802341</v>
+        <v>-0.1031560649721471</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.06246889130818014</v>
+        <v>-0.04717171375926158</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1191451229698786</v>
+        <v>-0.1282622296371744</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.102433867725304</v>
+        <v>-0.1283290138397057</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1304330047475227</v>
+        <v>0.136285687258398</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.369851687723934</v>
+        <v>0.3394944988765842</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3444401861904972</v>
+        <v>0.305450431999268</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.094236445920218</v>
+        <v>1.031368528401612</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4219821927113491</v>
+        <v>0.4315669861577132</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.393530215603648</v>
+        <v>0.4001604084717523</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.44070422985093</v>
+        <v>0.4419106098106362</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2990213672922207</v>
+        <v>0.2990598494420311</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2794742863698337</v>
+        <v>0.2967211705817903</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5845764119262659</v>
+        <v>0.6420887025533023</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.4497155019678095</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.705626903868106</v>
+        <v>3.705626903868109</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.129539652376936</v>
@@ -1297,7 +1297,7 @@
         <v>-2.916940912962968</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.6750443699661351</v>
+        <v>0.6750443699661407</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.349356027450074</v>
@@ -1306,7 +1306,7 @@
         <v>-1.684031860320259</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.193672771209243</v>
+        <v>2.193672771209246</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.656306969125625</v>
+        <v>1.678964111734647</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.306451546198135</v>
+        <v>-2.245897587426838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.830057614913333</v>
+        <v>1.684752075177957</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.139013909031337</v>
+        <v>0.9028938568613704</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.96982564831557</v>
+        <v>-5.145859397916538</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.429000546539962</v>
+        <v>-1.425510900121725</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.851572328433527</v>
+        <v>1.789282294384807</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.240222876354833</v>
+        <v>-3.082862562883561</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7569442175057114</v>
+        <v>0.8426444733539583</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.409824857339982</v>
+        <v>5.363201340222713</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.360719801790967</v>
+        <v>1.30325028428958</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.77517523666477</v>
+        <v>5.864172587188386</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.301470950842017</v>
+        <v>5.490335582798185</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.9535651962118453</v>
+        <v>-0.895401778678828</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.685187069306419</v>
+        <v>2.540175587101752</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.787434579791835</v>
+        <v>4.822165550845768</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.4179385594558299</v>
+        <v>-0.3522811783170575</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.591733839617661</v>
+        <v>3.532443223517517</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.0262893552953755</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2166226021598519</v>
+        <v>0.2166226021598521</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1283043365375581</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1195882494323786</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02767535473025124</v>
+        <v>0.02767535473025147</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.160987110210731</v>
@@ -1411,7 +1411,7 @@
         <v>-0.08094314861539489</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1054390865857889</v>
+        <v>0.105439086585789</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.09110774774010896</v>
+        <v>0.09320340435650815</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1260944922683728</v>
+        <v>-0.1234793763648691</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1005241738321181</v>
+        <v>0.1000705197960114</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.04282967161426533</v>
+        <v>0.03647382305057269</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1967271612201931</v>
+        <v>-0.2001657026647467</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.05605873736024217</v>
+        <v>-0.05612882051975338</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08603893371689929</v>
+        <v>0.08328374769031957</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1477110989325571</v>
+        <v>-0.1423529939623857</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.03471549908247567</v>
+        <v>0.03991787134489483</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3325457821472203</v>
+        <v>0.329287522696215</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.08321919579986033</v>
+        <v>0.08010198591698592</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3602991449189727</v>
+        <v>0.3613681152683881</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.225989121561911</v>
+        <v>0.2344684623664015</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.0406040329916933</v>
+        <v>-0.03777217426997667</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1159813977941544</v>
+        <v>0.1105869292245435</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2381008533572492</v>
+        <v>0.2380274301579009</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.02106766836913065</v>
+        <v>-0.01685164055225079</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1793093586512163</v>
+        <v>0.1761499581125129</v>
       </c>
     </row>
     <row r="28">
